--- a/assets/data/Diccionario Variables France.xlsx
+++ b/assets/data/Diccionario Variables France.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Departamentos" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Tipo Actividad Económica" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sector Actividad Económica" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Región Nacimiento" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Region" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="140">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -403,7 +403,7 @@
     <t xml:space="preserve">Inactivo o desempleado</t>
   </si>
   <si>
-    <t xml:space="preserve">Región nacimiento</t>
+    <t xml:space="preserve">Region</t>
   </si>
   <si>
     <t xml:space="preserve">Île-de-France</t>
@@ -453,7 +453,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -475,6 +475,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -526,7 +534,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -536,6 +544,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -558,11 +570,11 @@
   </sheetPr>
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
   </cols>
@@ -1397,7 +1409,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22"/>
   </cols>
@@ -1480,7 +1492,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.66"/>
   </cols>
@@ -1551,11 +1563,11 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.17"/>
   </cols>
@@ -1568,136 +1580,136 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
